--- a/src/main/resources/template/invoice/invoiceTemplateDeLiXun.xlsx
+++ b/src/main/resources/template/invoice/invoiceTemplateDeLiXun.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\amazon\ddt\back\ddt\src\main\resources\template\invoice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="多个订单可以建立多个sheet" sheetId="2" r:id="rId1"/>
@@ -19,7 +24,7 @@
     <author>toudision@outlook.com</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -32,7 +37,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0">
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0">
+    <comment ref="A25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0">
+    <comment ref="B25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0">
+    <comment ref="D25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0">
+    <comment ref="E25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0">
+    <comment ref="F25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0">
+    <comment ref="J25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N25" authorId="0">
+    <comment ref="N25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O25" authorId="0">
+    <comment ref="O25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R25" authorId="0">
+    <comment ref="R25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S25" authorId="0">
+    <comment ref="S25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -248,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T25" authorId="0">
+    <comment ref="T25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -374,9 +379,6 @@
     </r>
   </si>
   <si>
-    <t>ONT8</t>
-  </si>
-  <si>
     <t>收件人</t>
   </si>
   <si>
@@ -403,9 +405,6 @@
     </r>
   </si>
   <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>收件省份</t>
   </si>
   <si>
@@ -447,9 +446,6 @@
     </r>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>清关(否/是)</t>
   </si>
   <si>
@@ -662,7 +658,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Vauel/pcs</t>
     </r>
@@ -679,7 +675,7 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>*</t>
     </r>
@@ -866,22 +862,13 @@
   </si>
   <si>
     <t>产品图片</t>
-  </si>
-  <si>
-    <t>USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -924,159 +911,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1111,7 +954,7 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1122,7 +965,7 @@
       <sz val="9"/>
       <color indexed="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1136,8 +979,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1146,7 +994,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599963377788629"/>
+        <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,194 +1010,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1409,266 +1071,39 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1733,81 +1168,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="常规 35" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 11 2" xfId="50"/>
-    <cellStyle name="常规 3" xfId="51"/>
-    <cellStyle name="常规_Sheet1" xfId="52"/>
+    <cellStyle name="常规 11 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 35" xfId="1"/>
+    <cellStyle name="常规_Sheet1" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2094,759 +1470,748 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:U26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.6" customWidth="1"/>
-    <col min="2" max="2" width="8.8" customWidth="1"/>
-    <col min="3" max="3" width="6.4" customWidth="1"/>
-    <col min="7" max="7" width="12.9" customWidth="1"/>
-    <col min="8" max="8" width="23.7" customWidth="1"/>
-    <col min="9" max="9" width="12.225" customWidth="1"/>
-    <col min="10" max="10" width="9.9" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="23.75" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
     <col min="14" max="15" width="14.5" customWidth="1"/>
-    <col min="17" max="17" width="11.7" customWidth="1"/>
-    <col min="20" max="20" width="15.9" customWidth="1"/>
+    <col min="17" max="17" width="11.75" customWidth="1"/>
+    <col min="20" max="20" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" customHeight="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:21">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="30"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:21">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="30"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:21">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="30"/>
-    </row>
-    <row r="5" ht="16.8" customHeight="1" spans="1:21">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="30"/>
-    </row>
-    <row r="6" customFormat="1" ht="17.25" customHeight="1" spans="1:21">
-      <c r="A6" s="5" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="30"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:21">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="30"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:21">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="30"/>
-    </row>
-    <row r="9" customFormat="1" ht="17.25" customHeight="1" spans="1:21">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="30"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:21">
-      <c r="A10" s="13" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="4" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="30"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:21">
-      <c r="A11" s="16" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="30"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:21">
-      <c r="A12" s="16" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="30"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:21">
-      <c r="A13" s="16" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="30"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:21">
-      <c r="A14" s="16" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="30"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:21">
-      <c r="A15" s="16" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="30"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:21">
-      <c r="A16" s="19" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="30"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:21">
-      <c r="A17" s="16" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="1:21" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="30"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:21">
-      <c r="A18" s="22" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="1:21" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="4" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="1:21" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="30"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:21">
-      <c r="A19" s="25" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" spans="1:21" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="30"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:21">
-      <c r="A20" s="25" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23" spans="1:21" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="30"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:21">
-      <c r="A21" s="25" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="4"/>
+    </row>
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="30"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:21">
-      <c r="A22" s="25" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="4"/>
+    </row>
+    <row r="25" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="30"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:21">
-      <c r="A23" s="25" t="s">
+      <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="30"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:21">
-      <c r="A24" s="25" t="s">
+      <c r="C25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="30"/>
-    </row>
-    <row r="25" ht="42.75" spans="1:21">
-      <c r="A25" s="27" t="s">
+      <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="E25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="F25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="G25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="H25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="I25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="J25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="K25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="L25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="M25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="N25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="O25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M25" s="27" t="s">
+      <c r="P25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="27" t="s">
+      <c r="Q25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O25" s="27" t="s">
+      <c r="R25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P25" s="27" t="s">
+      <c r="S25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q25" s="27" t="s">
+      <c r="T25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R25" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="S25" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T25" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="U25" s="31"/>
-    </row>
-    <row r="26" spans="9:9">
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
+      <c r="U25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:T2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:T3"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:T22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:T23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:T24"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:T19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:T20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:T21"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:T16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:T17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:T18"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:T13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:T14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:T15"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:T10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:T11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:T12"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:T7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:T8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:T9"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:T4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:T5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:T6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:T7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:T8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:T9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:T10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:T11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:T12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:T13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:T14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:T15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:T16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:T17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:T18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:T19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:T20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:T21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:T22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:T23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:T24"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:T2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:T3"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>